--- a/backend/fms_core/tests/test_services/templates/Sample_pooling_v3_13_0.xlsx
+++ b/backend/fms_core/tests/test_services/templates/Sample_pooling_v3_13_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/C3G/repos/freezeman/backend/fms_core/tests/test_services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E17CA51-DEAF-7944-BAD7-6AEB41B6DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FC20A-BDDD-E346-ADE1-74BDCA247924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36620" yWindow="-2080" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68340" yWindow="-4800" windowWidth="33440" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pools" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="447">
   <si>
     <t>Sample Pooling Template</t>
   </si>
@@ -1545,12 +1545,30 @@
   <si>
     <t>ER_Pooled_RNA</t>
   </si>
+  <si>
+    <t>ER_Pooled_DNA</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>ER_Sample_DNA1</t>
+  </si>
+  <si>
+    <t>ER_Sample_DNA2</t>
+  </si>
+  <si>
+    <t>ER_Sample_DNA3</t>
+  </si>
+  <si>
+    <t>ER_Sample_DNA4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1614,6 +1632,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2038,23 +2061,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF808080"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -2500,7 +2507,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2587,7 +2594,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>15</v>
@@ -2597,17 +2604,35 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="A5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>442</v>
+      </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3927,18 +3952,19 @@
       <c r="L99" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>OR($AF4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="F4:F5">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>OR($AF4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D4" xr:uid="{848D8034-83A3-6B45-814E-597B5B2FE49F}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{848D8034-83A3-6B45-814E-597B5B2FE49F}"/>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3957,7 +3983,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>I4:I99 C4:C99 E4:E99 D5:D99</xm:sqref>
+          <xm:sqref>I4:I99 C4:C99 E4:E99 D6:D99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -3988,7 +4014,7 @@
   <dimension ref="A1:V706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4098,47 +4124,103 @@
       <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="A6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="H6" s="32">
+        <v>100</v>
+      </c>
       <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="H7" s="32">
+        <v>100</v>
+      </c>
       <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="H8" s="32">
+        <v>100</v>
+      </c>
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="A9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="H9" s="32">
+        <v>100</v>
+      </c>
       <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
@@ -5739,23 +5821,20 @@
     <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR($AF4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="C5:C9">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($AF5&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G99" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"YES,"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A6:A8" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>$A$4:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5780,7 +5859,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A9:A99</xm:sqref>
+          <xm:sqref>A10:A99</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/backend/fms_core/tests/test_services/templates/Sample_pooling_v3_13_0.xlsx
+++ b/backend/fms_core/tests/test_services/templates/Sample_pooling_v3_13_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/C3G/repos/freezeman/backend/fms_core/tests/test_services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FC20A-BDDD-E346-ADE1-74BDCA247924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E2C075-8AB8-8C4B-B088-6C3A6DE2F2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68340" yWindow="-4800" windowWidth="33440" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Used for index validation. If left empty, the validation will be skipped.</t>
         </r>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="448">
   <si>
     <t>Sample Pooling Template</t>
   </si>
@@ -1563,12 +1563,15 @@
   <si>
     <t>ER_Sample_DNA4</t>
   </si>
+  <si>
+    <t>Experiment Run Info Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1619,13 +1622,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1637,7 +1640,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4014,7 +4023,7 @@
   <dimension ref="A1:V706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I4" sqref="I4:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4096,7 +4105,9 @@
       <c r="H4" s="32">
         <v>100</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="33" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -4121,7 +4132,9 @@
       <c r="H5" s="32">
         <v>100</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4146,7 +4159,9 @@
       <c r="H6" s="32">
         <v>100</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="33" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4171,7 +4186,9 @@
       <c r="H7" s="32">
         <v>100</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="33" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4196,7 +4213,9 @@
       <c r="H8" s="32">
         <v>100</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="33" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4221,7 +4240,9 @@
       <c r="H9" s="32">
         <v>100</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="33" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
